--- a/DB.xlsx
+++ b/DB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Desktop\최종\엑셀\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Desktop\DT_FINAL_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE992F7A-2329-4B8C-8673-A22F79B4ADD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FBD2DD-B76A-4B1A-A378-2AEAF5C76A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="680" windowWidth="25580" windowHeight="14720" activeTab="7" xr2:uid="{EBD851E0-B472-42A5-A8D1-7DB976409602}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{EBD851E0-B472-42A5-A8D1-7DB976409602}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 설계" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="81">
   <si>
     <t>가로</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -207,10 +207,6 @@
   </si>
   <si>
     <t>object_state_list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>object_id(PK)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -815,6 +811,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,12 +828,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1161,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0B6CB2-3686-41C3-9083-698D358ABA98}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1203,22 +1199,22 @@
     </row>
     <row r="2" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
@@ -1264,39 +1260,43 @@
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="H5" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="4"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -1323,19 +1323,19 @@
     </row>
     <row r="8" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1355,19 +1355,19 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="35" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>80</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>81</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1397,27 +1397,27 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
@@ -1446,30 +1446,30 @@
         <v>11</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="C16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="G16" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1497,30 +1497,30 @@
         <v>11</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="H19" s="5"/>
     </row>
@@ -1544,24 +1544,24 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="C22" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="34" t="s">
         <v>77</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>78</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -3076,10 +3076,10 @@
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="37">
-        <v>3</v>
-      </c>
-      <c r="G8" s="37"/>
+      <c r="F8" s="39">
+        <v>3</v>
+      </c>
+      <c r="G8" s="39"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
@@ -3092,20 +3092,20 @@
       <c r="C9" s="24">
         <v>0</v>
       </c>
-      <c r="D9" s="35">
-        <v>1</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="35">
-        <v>2</v>
-      </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="36">
+      <c r="D9" s="37">
+        <v>1</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="37">
+        <v>2</v>
+      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38">
         <v>4</v>
       </c>
-      <c r="K9" s="36"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B10">
@@ -3211,13 +3211,13 @@
         <v>15</v>
       </c>
       <c r="Q1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.45">
@@ -4149,7 +4149,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
-      <c r="K9" s="35">
+      <c r="K9" s="37">
         <v>6</v>
       </c>
       <c r="L9" s="21"/>
@@ -4169,13 +4169,13 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="35"/>
+      <c r="K10" s="37"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
-      <c r="N10" s="36">
+      <c r="N10" s="38">
         <v>11</v>
       </c>
-      <c r="O10" s="36"/>
+      <c r="O10" s="38"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B11">
@@ -4184,26 +4184,26 @@
       <c r="C11" s="24">
         <v>0</v>
       </c>
-      <c r="D11" s="35">
-        <v>3</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="38">
+      <c r="D11" s="37">
+        <v>3</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="40">
         <v>9</v>
       </c>
-      <c r="G11" s="38"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="38">
+      <c r="J11" s="40">
         <v>10</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="35">
+      <c r="K11" s="40"/>
+      <c r="L11" s="37">
         <v>7</v>
       </c>
-      <c r="M11" s="35"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B12">
@@ -4212,14 +4212,14 @@
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="35">
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="37">
         <v>5</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
@@ -4232,24 +4232,24 @@
       <c r="C13" s="24">
         <v>1</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="37">
         <v>4</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="35">
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="37">
         <v>8</v>
       </c>
-      <c r="M13" s="35"/>
-      <c r="N13" s="36">
+      <c r="M13" s="37"/>
+      <c r="N13" s="38">
         <v>12</v>
       </c>
-      <c r="O13" s="36"/>
+      <c r="O13" s="38"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B14">
@@ -4266,8 +4266,8 @@
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C17" s="9"/>
@@ -6834,11 +6834,11 @@
       <c r="C8" s="24">
         <v>0</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="37">
         <v>7</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35">
+      <c r="E8" s="37"/>
+      <c r="F8" s="37">
         <v>8</v>
       </c>
       <c r="G8" s="21"/>
@@ -6863,7 +6863,7 @@
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="35"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -6876,10 +6876,10 @@
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="36">
+      <c r="S9" s="38">
         <v>31</v>
       </c>
-      <c r="T9" s="36"/>
+      <c r="T9" s="38"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B10">
@@ -6888,37 +6888,37 @@
       <c r="C10" s="24">
         <v>1</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="37">
         <v>9</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="38">
+      <c r="E10" s="37"/>
+      <c r="F10" s="40">
         <v>26</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="35">
+      <c r="G10" s="40"/>
+      <c r="H10" s="37">
         <v>14</v>
       </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35">
+      <c r="I10" s="37"/>
+      <c r="J10" s="37">
         <v>15</v>
       </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35">
+      <c r="K10" s="37"/>
+      <c r="L10" s="37">
         <v>16</v>
       </c>
-      <c r="M10" s="35"/>
-      <c r="N10" s="38">
+      <c r="M10" s="37"/>
+      <c r="N10" s="40">
         <v>29</v>
       </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="35">
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="37">
         <v>24</v>
       </c>
-      <c r="R10" s="35"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B11">
@@ -6927,17 +6927,17 @@
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
@@ -6950,35 +6950,35 @@
       <c r="C12" s="24">
         <v>2</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="37">
         <v>10</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="35">
+      <c r="E12" s="37"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="37">
         <v>17</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="38">
-        <v>28</v>
-      </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="35">
+      <c r="I12" s="37"/>
+      <c r="J12" s="40">
+        <v>28</v>
+      </c>
+      <c r="K12" s="40"/>
+      <c r="L12" s="37">
         <v>20</v>
       </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="35">
+      <c r="M12" s="37"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="37">
         <v>25</v>
       </c>
-      <c r="R12" s="35"/>
-      <c r="S12" s="36">
+      <c r="R12" s="37"/>
+      <c r="S12" s="38">
         <v>32</v>
       </c>
-      <c r="T12" s="36"/>
+      <c r="T12" s="38"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B13">
@@ -6987,25 +6987,25 @@
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="35">
+      <c r="F13" s="37">
         <v>12</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
-      <c r="N13" s="35">
+      <c r="N13" s="37">
         <v>21</v>
       </c>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B14">
@@ -7014,19 +7014,19 @@
       <c r="C14" s="24">
         <v>3</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="37">
         <v>11</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
-      <c r="N14" s="35"/>
+      <c r="N14" s="37"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
@@ -7042,22 +7042,22 @@
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
-      <c r="G15" s="38">
+      <c r="G15" s="40">
         <v>27</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="21"/>
-      <c r="J15" s="35">
+      <c r="J15" s="37">
         <v>19</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
-      <c r="N15" s="38">
+      <c r="N15" s="40">
         <v>30</v>
       </c>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
@@ -7071,16 +7071,16 @@
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="35"/>
+      <c r="J16" s="37"/>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
@@ -7094,24 +7094,24 @@
       <c r="D17" s="24">
         <v>4</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="37">
         <v>13</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="35">
+      <c r="F17" s="37"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="37">
         <v>18</v>
       </c>
-      <c r="J17" s="35"/>
+      <c r="J17" s="37"/>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
-      <c r="N17" s="35">
+      <c r="N17" s="37">
         <v>22</v>
       </c>
       <c r="O17" s="21"/>
-      <c r="P17" s="35">
+      <c r="P17" s="37">
         <v>23</v>
       </c>
       <c r="Q17" s="21"/>
@@ -7134,9 +7134,9 @@
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
-      <c r="N18" s="35"/>
+      <c r="N18" s="37"/>
       <c r="O18" s="21"/>
-      <c r="P18" s="35"/>
+      <c r="P18" s="37"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
@@ -7195,13 +7195,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="N15:P16"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G15:H17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="S9:T10"/>
     <mergeCell ref="S12:T13"/>
     <mergeCell ref="N13:N14"/>
@@ -7215,12 +7214,13 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="G15:H17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="N15:P16"/>
+    <mergeCell ref="I17:J17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7231,7 +7231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81FE662-32BE-4AE8-9397-69A87FB5C992}">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Desktop\DT_FINAL_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FBD2DD-B76A-4B1A-A378-2AEAF5C76A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591EB419-8CAB-4E50-B373-9F86D9ECD12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{EBD851E0-B472-42A5-A8D1-7DB976409602}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="81">
   <si>
     <t>가로</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -280,14 +280,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>buf1_count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>buf2_count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>state_time_list</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -353,6 +345,14 @@
   </si>
   <si>
     <t>receive_object_id(FK)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffer_count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock_count</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1158,7 +1158,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1364,10 +1364,10 @@
         <v>53</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1414,10 +1414,10 @@
         <v>58</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
@@ -1446,7 +1446,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -1460,16 +1460,16 @@
         <v>58</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1497,7 +1497,7 @@
         <v>11</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -1511,16 +1511,16 @@
         <v>58</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H19" s="5"/>
     </row>
@@ -1544,7 +1544,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -1555,13 +1555,13 @@
         <v>54</v>
       </c>
       <c r="C22" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="34" t="s">
-        <v>78</v>
-      </c>
       <c r="E22" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -3162,7 +3162,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:C36"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3211,13 +3211,13 @@
         <v>15</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.45">
@@ -3273,22 +3273,25 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I4">
@@ -3309,21 +3312,24 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
@@ -3350,15 +3356,18 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
       <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
@@ -3379,21 +3388,24 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
       <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
@@ -3414,21 +3426,24 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
       <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
         <v>2</v>
       </c>
       <c r="I8">
@@ -3449,21 +3464,24 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>7</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
       <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
@@ -7195,12 +7213,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G15:H17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="N15:P16"/>
+    <mergeCell ref="I17:J17"/>
     <mergeCell ref="S9:T10"/>
     <mergeCell ref="S12:T13"/>
     <mergeCell ref="N13:N14"/>
@@ -7214,13 +7233,12 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="N15:P16"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G15:H17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Desktop\DT_FINAL_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591EB419-8CAB-4E50-B373-9F86D9ECD12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E4C237-E7DF-4B99-BE4E-A5ADE4CA211C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{EBD851E0-B472-42A5-A8D1-7DB976409602}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="7" xr2:uid="{EBD851E0-B472-42A5-A8D1-7DB976409602}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 설계" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="81">
   <si>
     <t>가로</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -705,7 +705,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,6 +828,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1157,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0B6CB2-3686-41C3-9083-698D358ABA98}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3162,7 +3165,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3273,10 +3276,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="41" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -4334,8 +4337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09AA06A0-4F2F-4E5B-9DF3-4EA0CC49E3D9}">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4440,22 +4443,25 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I4">
@@ -4485,21 +4491,24 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" s="33">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="33">
+        <v>0</v>
+      </c>
+      <c r="D5" s="33">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="33">
-        <v>1</v>
-      </c>
       <c r="F5" s="33">
+        <v>1</v>
+      </c>
+      <c r="G5" s="33">
         <v>1</v>
       </c>
       <c r="I5">
@@ -4529,21 +4538,24 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="33">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6" s="33">
+        <v>0</v>
+      </c>
+      <c r="D6" s="33">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="33">
-        <v>1</v>
-      </c>
       <c r="F6" s="33">
+        <v>1</v>
+      </c>
+      <c r="G6" s="33">
         <v>1</v>
       </c>
       <c r="I6">
@@ -4575,19 +4587,22 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="33">
         <v>8</v>
       </c>
-      <c r="C7" s="33">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D7" s="33">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="33">
-        <v>1</v>
-      </c>
       <c r="F7" s="33">
+        <v>1</v>
+      </c>
+      <c r="G7" s="33">
         <v>1</v>
       </c>
       <c r="I7">
@@ -4617,21 +4632,24 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" s="33">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
       </c>
       <c r="C8" s="33">
+        <v>1</v>
+      </c>
+      <c r="D8" s="33">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="33">
-        <v>2</v>
-      </c>
       <c r="F8" s="33">
+        <v>2</v>
+      </c>
+      <c r="G8" s="33">
         <v>1</v>
       </c>
       <c r="I8">
@@ -4661,21 +4679,24 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="B9" s="33">
-        <v>1</v>
-      </c>
       <c r="C9" s="33">
+        <v>1</v>
+      </c>
+      <c r="D9" s="33">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="33">
-        <v>2</v>
-      </c>
       <c r="F9" s="33">
+        <v>2</v>
+      </c>
+      <c r="G9" s="33">
         <v>1</v>
       </c>
       <c r="I9">
@@ -4705,21 +4726,24 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" s="33">
+        <v>2</v>
+      </c>
+      <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" s="33">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="33">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="33">
-        <v>2</v>
-      </c>
       <c r="F10" s="33">
+        <v>2</v>
+      </c>
+      <c r="G10" s="33">
         <v>1</v>
       </c>
       <c r="I10">
@@ -4749,21 +4773,24 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
         <v>6</v>
       </c>
-      <c r="B11" s="33">
+      <c r="C11" s="33">
         <v>8</v>
       </c>
-      <c r="C11" s="33">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D11" s="33">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="33">
-        <v>1</v>
-      </c>
       <c r="F11" s="33">
+        <v>1</v>
+      </c>
+      <c r="G11" s="33">
         <v>2</v>
       </c>
       <c r="I11">
@@ -4786,21 +4813,24 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
         <v>7</v>
       </c>
-      <c r="B12" s="33">
+      <c r="C12" s="33">
         <v>9</v>
       </c>
-      <c r="C12" s="33">
+      <c r="D12" s="33">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="33">
-        <v>2</v>
-      </c>
       <c r="F12" s="33">
+        <v>2</v>
+      </c>
+      <c r="G12" s="33">
         <v>1</v>
       </c>
       <c r="I12">
@@ -4833,21 +4863,24 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
         <v>8</v>
       </c>
-      <c r="B13" s="33">
+      <c r="C13" s="33">
         <v>9</v>
       </c>
-      <c r="C13" s="33">
+      <c r="D13" s="33">
         <v>6</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="33">
-        <v>2</v>
-      </c>
       <c r="F13" s="33">
+        <v>2</v>
+      </c>
+      <c r="G13" s="33">
         <v>1</v>
       </c>
       <c r="I13">
@@ -4877,21 +4910,24 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
         <v>9</v>
       </c>
-      <c r="B14" s="33">
-        <v>3</v>
-      </c>
       <c r="C14" s="33">
+        <v>3</v>
+      </c>
+      <c r="D14" s="33">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="33">
-        <v>2</v>
-      </c>
       <c r="F14" s="33">
+        <v>2</v>
+      </c>
+      <c r="G14" s="33">
         <v>3</v>
       </c>
       <c r="I14">
@@ -4921,21 +4957,24 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
         <v>10</v>
       </c>
-      <c r="B15" s="33">
+      <c r="C15" s="33">
         <v>7</v>
       </c>
-      <c r="C15" s="33">
+      <c r="D15" s="33">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="33">
-        <v>2</v>
-      </c>
       <c r="F15" s="33">
+        <v>2</v>
+      </c>
+      <c r="G15" s="33">
         <v>3</v>
       </c>
       <c r="I15">
@@ -4965,21 +5004,24 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
         <v>11</v>
       </c>
-      <c r="B16" s="33">
+      <c r="C16" s="33">
         <v>11</v>
       </c>
-      <c r="C16" s="33">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="D16" s="33">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="33">
-        <v>2</v>
-      </c>
       <c r="F16" s="33">
+        <v>2</v>
+      </c>
+      <c r="G16" s="33">
         <v>2</v>
       </c>
       <c r="I16">
@@ -5009,21 +5051,24 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
         <v>12</v>
       </c>
-      <c r="B17" s="33">
+      <c r="C17" s="33">
         <v>11</v>
       </c>
-      <c r="C17" s="33">
+      <c r="D17" s="33">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="33">
-        <v>2</v>
-      </c>
       <c r="F17" s="33">
+        <v>2</v>
+      </c>
+      <c r="G17" s="33">
         <v>2</v>
       </c>
       <c r="I17">
@@ -7213,13 +7258,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="N15:P16"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G15:H17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="S9:T10"/>
     <mergeCell ref="S12:T13"/>
     <mergeCell ref="N13:N14"/>
@@ -7233,12 +7277,13 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="G15:H17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="N15:P16"/>
+    <mergeCell ref="I17:J17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7249,8 +7294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81FE662-32BE-4AE8-9397-69A87FB5C992}">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7355,22 +7400,25 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I4">
@@ -7400,21 +7448,24 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" s="33">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="33">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="33">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="33">
-        <v>1</v>
-      </c>
       <c r="F5" s="33">
+        <v>1</v>
+      </c>
+      <c r="G5" s="33">
         <v>1</v>
       </c>
       <c r="I5">
@@ -7444,21 +7495,24 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="33">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6" s="33">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="33">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="33">
-        <v>1</v>
-      </c>
       <c r="F6" s="33">
+        <v>1</v>
+      </c>
+      <c r="G6" s="33">
         <v>1</v>
       </c>
       <c r="I6">
@@ -7488,21 +7542,24 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" s="33">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
       </c>
       <c r="C7" s="33">
+        <v>0</v>
+      </c>
+      <c r="D7" s="33">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="33">
-        <v>1</v>
-      </c>
       <c r="F7" s="33">
+        <v>1</v>
+      </c>
+      <c r="G7" s="33">
         <v>1</v>
       </c>
       <c r="I7">
@@ -7534,19 +7591,22 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="33">
-        <v>0</v>
+      <c r="B8">
+        <v>3</v>
       </c>
       <c r="C8" s="33">
+        <v>0</v>
+      </c>
+      <c r="D8" s="33">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="33">
-        <v>1</v>
-      </c>
       <c r="F8" s="33">
+        <v>1</v>
+      </c>
+      <c r="G8" s="33">
         <v>1</v>
       </c>
       <c r="I8">
@@ -7576,21 +7636,24 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="B9" s="33">
-        <v>1</v>
-      </c>
       <c r="C9" s="33">
+        <v>1</v>
+      </c>
+      <c r="D9" s="33">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="33">
-        <v>1</v>
-      </c>
       <c r="F9" s="33">
+        <v>1</v>
+      </c>
+      <c r="G9" s="33">
         <v>1</v>
       </c>
       <c r="I9">
@@ -7620,21 +7683,24 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="B10" s="33">
+      <c r="C10" s="33">
         <v>11</v>
       </c>
-      <c r="C10" s="33">
+      <c r="D10" s="33">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="33">
-        <v>1</v>
-      </c>
       <c r="F10" s="33">
+        <v>1</v>
+      </c>
+      <c r="G10" s="33">
         <v>1</v>
       </c>
       <c r="I10">
@@ -7664,21 +7730,24 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
         <v>6</v>
       </c>
-      <c r="B11" s="33">
+      <c r="C11" s="33">
         <v>13</v>
       </c>
-      <c r="C11" s="33">
+      <c r="D11" s="33">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="33">
-        <v>1</v>
-      </c>
       <c r="F11" s="33">
+        <v>1</v>
+      </c>
+      <c r="G11" s="33">
         <v>1</v>
       </c>
       <c r="I11">
@@ -7701,21 +7770,24 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
         <v>7</v>
       </c>
-      <c r="B12" s="33">
-        <v>1</v>
-      </c>
       <c r="C12" s="33">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="33">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="33">
-        <v>2</v>
-      </c>
       <c r="F12" s="33">
+        <v>2</v>
+      </c>
+      <c r="G12" s="33">
         <v>1</v>
       </c>
       <c r="I12">
@@ -7748,21 +7820,24 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
         <v>8</v>
       </c>
-      <c r="B13" s="33">
-        <v>3</v>
-      </c>
       <c r="C13" s="33">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="33">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="33">
-        <v>1</v>
-      </c>
       <c r="F13" s="33">
+        <v>1</v>
+      </c>
+      <c r="G13" s="33">
         <v>2</v>
       </c>
       <c r="I13">
@@ -7792,21 +7867,24 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
         <v>9</v>
       </c>
-      <c r="B14" s="33">
-        <v>1</v>
-      </c>
       <c r="C14" s="33">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="33">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="33">
-        <v>2</v>
-      </c>
       <c r="F14" s="33">
+        <v>2</v>
+      </c>
+      <c r="G14" s="33">
         <v>1</v>
       </c>
       <c r="I14">
@@ -7836,21 +7914,24 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
         <v>10</v>
       </c>
-      <c r="B15" s="33">
-        <v>1</v>
-      </c>
       <c r="C15" s="33">
+        <v>1</v>
+      </c>
+      <c r="D15" s="33">
         <v>5</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="33">
-        <v>2</v>
-      </c>
       <c r="F15" s="33">
+        <v>2</v>
+      </c>
+      <c r="G15" s="33">
         <v>1</v>
       </c>
       <c r="I15">
@@ -7880,21 +7961,24 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
         <v>11</v>
       </c>
-      <c r="B16" s="33">
-        <v>1</v>
-      </c>
       <c r="C16" s="33">
+        <v>1</v>
+      </c>
+      <c r="D16" s="33">
         <v>7</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="33">
-        <v>2</v>
-      </c>
       <c r="F16" s="33">
+        <v>2</v>
+      </c>
+      <c r="G16" s="33">
         <v>1</v>
       </c>
       <c r="I16">
@@ -7924,21 +8008,24 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
         <v>12</v>
       </c>
-      <c r="B17" s="33">
-        <v>3</v>
-      </c>
       <c r="C17" s="33">
+        <v>3</v>
+      </c>
+      <c r="D17" s="33">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="33">
-        <v>1</v>
-      </c>
       <c r="F17" s="33">
+        <v>1</v>
+      </c>
+      <c r="G17" s="33">
         <v>2</v>
       </c>
       <c r="I17">
@@ -7968,21 +8055,24 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
         <v>13</v>
       </c>
-      <c r="B18" s="33">
-        <v>2</v>
-      </c>
       <c r="C18" s="33">
+        <v>2</v>
+      </c>
+      <c r="D18" s="33">
         <v>10</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="33">
-        <v>2</v>
-      </c>
       <c r="F18" s="33">
+        <v>2</v>
+      </c>
+      <c r="G18" s="33">
         <v>1</v>
       </c>
       <c r="P18" t="s">
@@ -7997,21 +8087,24 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
         <v>14</v>
       </c>
-      <c r="B19" s="33">
+      <c r="C19" s="33">
         <v>5</v>
       </c>
-      <c r="C19" s="33">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="D19" s="33">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="33">
-        <v>2</v>
-      </c>
       <c r="F19" s="33">
+        <v>2</v>
+      </c>
+      <c r="G19" s="33">
         <v>1</v>
       </c>
       <c r="Q19" s="25"/>
@@ -8019,21 +8112,24 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
         <v>15</v>
       </c>
-      <c r="B20" s="33">
+      <c r="C20" s="33">
         <v>7</v>
       </c>
-      <c r="C20" s="33">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="D20" s="33">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="33">
-        <v>2</v>
-      </c>
       <c r="F20" s="33">
+        <v>2</v>
+      </c>
+      <c r="G20" s="33">
         <v>1</v>
       </c>
       <c r="O20" t="s">
@@ -8051,21 +8147,24 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
         <v>16</v>
       </c>
-      <c r="B21" s="33">
+      <c r="C21" s="33">
         <v>9</v>
       </c>
-      <c r="C21" s="33">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="D21" s="33">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="33">
-        <v>2</v>
-      </c>
       <c r="F21" s="33">
+        <v>2</v>
+      </c>
+      <c r="G21" s="33">
         <v>1</v>
       </c>
       <c r="P21" t="s">
@@ -8080,21 +8179,24 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
         <v>17</v>
-      </c>
-      <c r="B22" s="33">
-        <v>5</v>
       </c>
       <c r="C22" s="33">
         <v>5</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="33">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="33">
-        <v>2</v>
-      </c>
       <c r="F22" s="33">
+        <v>2</v>
+      </c>
+      <c r="G22" s="33">
         <v>1</v>
       </c>
       <c r="P22" t="s">
@@ -8109,21 +8211,24 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
         <v>18</v>
       </c>
-      <c r="B23" s="33">
+      <c r="C23" s="33">
         <v>6</v>
       </c>
-      <c r="C23" s="33">
+      <c r="D23" s="33">
         <v>10</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="33">
-        <v>2</v>
-      </c>
       <c r="F23" s="33">
+        <v>2</v>
+      </c>
+      <c r="G23" s="33">
         <v>1</v>
       </c>
       <c r="P23" t="s">
@@ -8138,21 +8243,24 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
         <v>19</v>
       </c>
-      <c r="B24" s="33">
+      <c r="C24" s="33">
         <v>7</v>
       </c>
-      <c r="C24" s="33">
+      <c r="D24" s="33">
         <v>8</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="33">
-        <v>1</v>
-      </c>
       <c r="F24" s="33">
+        <v>1</v>
+      </c>
+      <c r="G24" s="33">
         <v>2</v>
       </c>
       <c r="P24" t="s">
@@ -8167,21 +8275,24 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
         <v>20</v>
       </c>
-      <c r="B25" s="33">
+      <c r="C25" s="33">
         <v>9</v>
       </c>
-      <c r="C25" s="33">
+      <c r="D25" s="33">
         <v>5</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="33">
-        <v>2</v>
-      </c>
       <c r="F25" s="33">
+        <v>2</v>
+      </c>
+      <c r="G25" s="33">
         <v>1</v>
       </c>
       <c r="P25" t="s">
@@ -8196,21 +8307,24 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
         <v>21</v>
       </c>
-      <c r="B26" s="33">
+      <c r="C26" s="33">
         <v>11</v>
       </c>
-      <c r="C26" s="33">
+      <c r="D26" s="33">
         <v>6</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="33">
-        <v>1</v>
-      </c>
       <c r="F26" s="33">
+        <v>1</v>
+      </c>
+      <c r="G26" s="33">
         <v>2</v>
       </c>
       <c r="P26" t="s">
@@ -8225,21 +8339,24 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
         <v>22</v>
       </c>
-      <c r="B27" s="33">
+      <c r="C27" s="33">
         <v>11</v>
       </c>
-      <c r="C27" s="33">
+      <c r="D27" s="33">
         <v>10</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="33">
-        <v>1</v>
-      </c>
       <c r="F27" s="33">
+        <v>1</v>
+      </c>
+      <c r="G27" s="33">
         <v>2</v>
       </c>
       <c r="Q27" s="25"/>
@@ -8247,21 +8364,24 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
         <v>23</v>
       </c>
-      <c r="B28" s="33">
+      <c r="C28" s="33">
         <v>13</v>
       </c>
-      <c r="C28" s="33">
+      <c r="D28" s="33">
         <v>10</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="33">
-        <v>1</v>
-      </c>
       <c r="F28" s="33">
+        <v>1</v>
+      </c>
+      <c r="G28" s="33">
         <v>2</v>
       </c>
       <c r="O28" t="s">
@@ -8279,21 +8399,24 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
         <v>24</v>
       </c>
-      <c r="B29" s="33">
+      <c r="C29" s="33">
         <v>14</v>
       </c>
-      <c r="C29" s="33">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="D29" s="33">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="33">
-        <v>2</v>
-      </c>
       <c r="F29" s="33">
+        <v>2</v>
+      </c>
+      <c r="G29" s="33">
         <v>1</v>
       </c>
       <c r="P29" t="s">
@@ -8308,21 +8431,24 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
         <v>25</v>
       </c>
-      <c r="B30" s="33">
+      <c r="C30" s="33">
         <v>14</v>
       </c>
-      <c r="C30" s="33">
+      <c r="D30" s="33">
         <v>5</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="33">
-        <v>2</v>
-      </c>
       <c r="F30" s="33">
+        <v>2</v>
+      </c>
+      <c r="G30" s="33">
         <v>1</v>
       </c>
       <c r="P30" t="s">
@@ -8337,21 +8463,24 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
         <v>26</v>
       </c>
-      <c r="B31" s="33">
-        <v>3</v>
-      </c>
       <c r="C31" s="33">
         <v>3</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="33">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="33">
-        <v>2</v>
-      </c>
       <c r="F31" s="33">
+        <v>2</v>
+      </c>
+      <c r="G31" s="33">
         <v>3</v>
       </c>
       <c r="P31" t="s">
@@ -8366,21 +8495,24 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
         <v>27</v>
       </c>
-      <c r="B32" s="33">
+      <c r="C32" s="33">
         <v>4</v>
       </c>
-      <c r="C32" s="33">
+      <c r="D32" s="33">
         <v>8</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="33">
-        <v>2</v>
-      </c>
       <c r="F32" s="33">
+        <v>2</v>
+      </c>
+      <c r="G32" s="33">
         <v>3</v>
       </c>
       <c r="P32" t="s">
@@ -8395,21 +8527,24 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>28</v>
-      </c>
-      <c r="B33" s="33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>28</v>
+      </c>
+      <c r="C33" s="33">
         <v>7</v>
       </c>
-      <c r="C33" s="33">
+      <c r="D33" s="33">
         <v>5</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="33">
-        <v>2</v>
-      </c>
       <c r="F33" s="33">
+        <v>2</v>
+      </c>
+      <c r="G33" s="33">
         <v>3</v>
       </c>
       <c r="P33" t="s">
@@ -8424,21 +8559,24 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
         <v>29</v>
       </c>
-      <c r="B34" s="33">
+      <c r="C34" s="33">
         <v>11</v>
       </c>
-      <c r="C34" s="33">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="D34" s="33">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="33">
-        <v>3</v>
-      </c>
       <c r="F34" s="33">
+        <v>3</v>
+      </c>
+      <c r="G34" s="33">
         <v>3</v>
       </c>
       <c r="P34" t="s">
@@ -8453,21 +8591,24 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
         <v>30</v>
       </c>
-      <c r="B35" s="33">
+      <c r="C35" s="33">
         <v>11</v>
       </c>
-      <c r="C35" s="33">
+      <c r="D35" s="33">
         <v>8</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="33">
-        <v>3</v>
-      </c>
       <c r="F35" s="33">
+        <v>3</v>
+      </c>
+      <c r="G35" s="33">
         <v>2</v>
       </c>
       <c r="P35" t="s">
@@ -8482,41 +8623,47 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
         <v>31</v>
       </c>
-      <c r="B36" s="33">
+      <c r="C36" s="33">
         <v>16</v>
       </c>
-      <c r="C36" s="33">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="D36" s="33">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="33">
-        <v>2</v>
-      </c>
       <c r="F36" s="33">
+        <v>2</v>
+      </c>
+      <c r="G36" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
         <v>32</v>
       </c>
-      <c r="B37" s="33">
+      <c r="C37" s="33">
         <v>16</v>
       </c>
-      <c r="C37" s="33">
+      <c r="D37" s="33">
         <v>5</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="33">
-        <v>2</v>
-      </c>
       <c r="F37" s="33">
+        <v>2</v>
+      </c>
+      <c r="G37" s="33">
         <v>2</v>
       </c>
     </row>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Desktop\DT_FINAL_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E4C237-E7DF-4B99-BE4E-A5ADE4CA211C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F689DC0F-019D-4E19-9B19-5A349F05FB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="7" xr2:uid="{EBD851E0-B472-42A5-A8D1-7DB976409602}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{EBD851E0-B472-42A5-A8D1-7DB976409602}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 설계" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="82">
   <si>
     <t>가로</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -353,6 +353,10 @@
   </si>
   <si>
     <t>stock_count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>object_id(PK)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -817,6 +821,9 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -828,9 +835,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1160,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0B6CB2-3686-41C3-9083-698D358ABA98}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1282,8 +1286,8 @@
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>54</v>
+      <c r="B6" s="37" t="s">
+        <v>81</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>42</v>
@@ -1772,6 +1776,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3079,10 +3084,10 @@
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="39">
-        <v>3</v>
-      </c>
-      <c r="G8" s="39"/>
+      <c r="F8" s="40">
+        <v>3</v>
+      </c>
+      <c r="G8" s="40"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
@@ -3095,20 +3100,20 @@
       <c r="C9" s="24">
         <v>0</v>
       </c>
-      <c r="D9" s="37">
-        <v>1</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="37">
-        <v>2</v>
-      </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38">
+      <c r="D9" s="38">
+        <v>1</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="38">
+        <v>2</v>
+      </c>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39">
         <v>4</v>
       </c>
-      <c r="K9" s="38"/>
+      <c r="K9" s="39"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B10">
@@ -3279,7 +3284,7 @@
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="37" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -4170,7 +4175,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
-      <c r="K9" s="37">
+      <c r="K9" s="38">
         <v>6</v>
       </c>
       <c r="L9" s="21"/>
@@ -4190,13 +4195,13 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="37"/>
+      <c r="K10" s="38"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
-      <c r="N10" s="38">
+      <c r="N10" s="39">
         <v>11</v>
       </c>
-      <c r="O10" s="38"/>
+      <c r="O10" s="39"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B11">
@@ -4205,26 +4210,26 @@
       <c r="C11" s="24">
         <v>0</v>
       </c>
-      <c r="D11" s="37">
-        <v>3</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="40">
+      <c r="D11" s="38">
+        <v>3</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="41">
         <v>9</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="40">
+      <c r="J11" s="41">
         <v>10</v>
       </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="37">
+      <c r="K11" s="41"/>
+      <c r="L11" s="38">
         <v>7</v>
       </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B12">
@@ -4233,14 +4238,14 @@
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="37">
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="38">
         <v>5</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
@@ -4253,24 +4258,24 @@
       <c r="C13" s="24">
         <v>1</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="38">
         <v>4</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="37">
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="38">
         <v>8</v>
       </c>
-      <c r="M13" s="37"/>
-      <c r="N13" s="38">
+      <c r="M13" s="38"/>
+      <c r="N13" s="39">
         <v>12</v>
       </c>
-      <c r="O13" s="38"/>
+      <c r="O13" s="39"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B14">
@@ -4287,8 +4292,8 @@
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C17" s="9"/>
@@ -4446,7 +4451,7 @@
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="37" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -6897,11 +6902,11 @@
       <c r="C8" s="24">
         <v>0</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="38">
         <v>7</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37">
+      <c r="E8" s="38"/>
+      <c r="F8" s="38">
         <v>8</v>
       </c>
       <c r="G8" s="21"/>
@@ -6926,7 +6931,7 @@
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="37"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -6939,10 +6944,10 @@
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="38">
+      <c r="S9" s="39">
         <v>31</v>
       </c>
-      <c r="T9" s="38"/>
+      <c r="T9" s="39"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B10">
@@ -6951,37 +6956,37 @@
       <c r="C10" s="24">
         <v>1</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="38">
         <v>9</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="40">
+      <c r="E10" s="38"/>
+      <c r="F10" s="41">
         <v>26</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="37">
+      <c r="G10" s="41"/>
+      <c r="H10" s="38">
         <v>14</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37">
+      <c r="I10" s="38"/>
+      <c r="J10" s="38">
         <v>15</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37">
+      <c r="K10" s="38"/>
+      <c r="L10" s="38">
         <v>16</v>
       </c>
-      <c r="M10" s="37"/>
-      <c r="N10" s="40">
+      <c r="M10" s="38"/>
+      <c r="N10" s="41">
         <v>29</v>
       </c>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="37">
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="38">
         <v>24</v>
       </c>
-      <c r="R10" s="37"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B11">
@@ -6990,17 +6995,17 @@
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
@@ -7013,35 +7018,35 @@
       <c r="C12" s="24">
         <v>2</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="38">
         <v>10</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="37">
+      <c r="E12" s="38"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="38">
         <v>17</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="40">
-        <v>28</v>
-      </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="37">
+      <c r="I12" s="38"/>
+      <c r="J12" s="41">
+        <v>28</v>
+      </c>
+      <c r="K12" s="41"/>
+      <c r="L12" s="38">
         <v>20</v>
       </c>
-      <c r="M12" s="37"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="37">
+      <c r="M12" s="38"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="38">
         <v>25</v>
       </c>
-      <c r="R12" s="37"/>
-      <c r="S12" s="38">
+      <c r="R12" s="38"/>
+      <c r="S12" s="39">
         <v>32</v>
       </c>
-      <c r="T12" s="38"/>
+      <c r="T12" s="39"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B13">
@@ -7050,25 +7055,25 @@
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="37">
+      <c r="F13" s="38">
         <v>12</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
-      <c r="N13" s="37">
+      <c r="N13" s="38">
         <v>21</v>
       </c>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B14">
@@ -7077,19 +7082,19 @@
       <c r="C14" s="24">
         <v>3</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="38">
         <v>11</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
-      <c r="N14" s="37"/>
+      <c r="N14" s="38"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
@@ -7105,22 +7110,22 @@
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
-      <c r="G15" s="40">
+      <c r="G15" s="41">
         <v>27</v>
       </c>
-      <c r="H15" s="40"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="21"/>
-      <c r="J15" s="37">
+      <c r="J15" s="38">
         <v>19</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
-      <c r="N15" s="40">
+      <c r="N15" s="41">
         <v>30</v>
       </c>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
@@ -7134,16 +7139,16 @@
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="37"/>
+      <c r="J16" s="38"/>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
@@ -7157,24 +7162,24 @@
       <c r="D17" s="24">
         <v>4</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="38">
         <v>13</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="37">
+      <c r="F17" s="38"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="38">
         <v>18</v>
       </c>
-      <c r="J17" s="37"/>
+      <c r="J17" s="38"/>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
-      <c r="N17" s="37">
+      <c r="N17" s="38">
         <v>22</v>
       </c>
       <c r="O17" s="21"/>
-      <c r="P17" s="37">
+      <c r="P17" s="38">
         <v>23</v>
       </c>
       <c r="Q17" s="21"/>
@@ -7197,9 +7202,9 @@
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
-      <c r="N18" s="37"/>
+      <c r="N18" s="38"/>
       <c r="O18" s="21"/>
-      <c r="P18" s="37"/>
+      <c r="P18" s="38"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
@@ -7258,12 +7263,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G15:H17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="N15:P16"/>
+    <mergeCell ref="I17:J17"/>
     <mergeCell ref="S9:T10"/>
     <mergeCell ref="S12:T13"/>
     <mergeCell ref="N13:N14"/>
@@ -7277,13 +7283,12 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="N15:P16"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G15:H17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7294,7 +7299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81FE662-32BE-4AE8-9397-69A87FB5C992}">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -7403,7 +7408,7 @@
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="37" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Desktop\DT_FINAL_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Naver MYBOX\Cording Study\Kosa\Code\C++\WAiSER Use Project\최종 프로젝트\DT_FINAL_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F689DC0F-019D-4E19-9B19-5A349F05FB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB7D0A9-3285-43E1-AD30-ABA5ECDA798A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{EBD851E0-B472-42A5-A8D1-7DB976409602}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="3" activeTab="9" xr2:uid="{EBD851E0-B472-42A5-A8D1-7DB976409602}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 설계" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="시나리오 2번" sheetId="6" r:id="rId6"/>
     <sheet name="시나리오 3 그림" sheetId="7" r:id="rId7"/>
     <sheet name="시나리오 3번" sheetId="8" r:id="rId8"/>
+    <sheet name="시나리오 4 그림" sheetId="9" r:id="rId9"/>
+    <sheet name="시나리오 4번" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="83">
   <si>
     <t>가로</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -357,6 +359,10 @@
   </si>
   <si>
     <t>object_id(PK)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no.4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1164,7 +1170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0B6CB2-3686-41C3-9083-698D358ABA98}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1777,6 +1783,1832 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1709FDB1-0C6F-4E55-BAC2-9718CD3942C5}">
+  <dimension ref="A1:R77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2" s="25">
+        <v>0</v>
+      </c>
+      <c r="F2" s="25">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="25">
+        <v>0</v>
+      </c>
+      <c r="M2" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="25">
+        <v>5</v>
+      </c>
+      <c r="M3" s="25">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="25">
+        <v>0</v>
+      </c>
+      <c r="R3" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="25">
+        <v>30</v>
+      </c>
+      <c r="M4" s="25">
+        <v>35</v>
+      </c>
+      <c r="P4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>5</v>
+      </c>
+      <c r="R4" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="33">
+        <v>0</v>
+      </c>
+      <c r="D5" s="33">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="33">
+        <v>1</v>
+      </c>
+      <c r="G5" s="33">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="25">
+        <v>35</v>
+      </c>
+      <c r="M5" s="25">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>30</v>
+      </c>
+      <c r="R5" s="25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="33">
+        <v>0</v>
+      </c>
+      <c r="D6" s="33">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="33">
+        <v>1</v>
+      </c>
+      <c r="G6" s="33">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="25">
+        <v>60</v>
+      </c>
+      <c r="M6" s="25">
+        <v>65</v>
+      </c>
+      <c r="P6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>35</v>
+      </c>
+      <c r="R6" s="25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0</v>
+      </c>
+      <c r="D7" s="33">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="33">
+        <v>1</v>
+      </c>
+      <c r="G7" s="33">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="25">
+        <v>65</v>
+      </c>
+      <c r="M7" s="25">
+        <v>90</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>60</v>
+      </c>
+      <c r="R7" s="25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="33">
+        <v>0</v>
+      </c>
+      <c r="D8" s="33">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="33">
+        <v>1</v>
+      </c>
+      <c r="G8" s="33">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="25">
+        <v>90</v>
+      </c>
+      <c r="M8" s="25">
+        <v>95</v>
+      </c>
+      <c r="P8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>65</v>
+      </c>
+      <c r="R8" s="25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="33">
+        <v>1</v>
+      </c>
+      <c r="D9" s="33">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="33">
+        <v>1</v>
+      </c>
+      <c r="G9" s="33">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="25">
+        <v>95</v>
+      </c>
+      <c r="M9" s="25">
+        <v>100</v>
+      </c>
+      <c r="P9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>90</v>
+      </c>
+      <c r="R9" s="25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="33">
+        <v>11</v>
+      </c>
+      <c r="D10" s="33">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="33">
+        <v>1</v>
+      </c>
+      <c r="G10" s="33">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="25">
+        <v>0</v>
+      </c>
+      <c r="M10" s="25">
+        <v>5</v>
+      </c>
+      <c r="P10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>95</v>
+      </c>
+      <c r="R10" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" s="33">
+        <v>13</v>
+      </c>
+      <c r="D11" s="33">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="33">
+        <v>1</v>
+      </c>
+      <c r="G11" s="33">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="25">
+        <v>5</v>
+      </c>
+      <c r="M11" s="25">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" s="33">
+        <v>1</v>
+      </c>
+      <c r="D12" s="33">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="33">
+        <v>2</v>
+      </c>
+      <c r="G12" s="33">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="25">
+        <v>30</v>
+      </c>
+      <c r="M12" s="25">
+        <v>35</v>
+      </c>
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>0</v>
+      </c>
+      <c r="R12" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" s="33">
+        <v>3</v>
+      </c>
+      <c r="D13" s="33">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="33">
+        <v>1</v>
+      </c>
+      <c r="G13" s="33">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="25">
+        <v>35</v>
+      </c>
+      <c r="M13" s="25">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>10</v>
+      </c>
+      <c r="R13" s="25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" s="33">
+        <v>1</v>
+      </c>
+      <c r="D14" s="33">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="33">
+        <v>2</v>
+      </c>
+      <c r="G14" s="33">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="25">
+        <v>60</v>
+      </c>
+      <c r="M14" s="25">
+        <v>65</v>
+      </c>
+      <c r="P14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="25">
+        <v>15</v>
+      </c>
+      <c r="R14" s="25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" s="33">
+        <v>1</v>
+      </c>
+      <c r="D15" s="33">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="33">
+        <v>2</v>
+      </c>
+      <c r="G15" s="33">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="25">
+        <v>65</v>
+      </c>
+      <c r="M15" s="25">
+        <v>90</v>
+      </c>
+      <c r="P15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>40</v>
+      </c>
+      <c r="R15" s="25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" s="33">
+        <v>1</v>
+      </c>
+      <c r="D16" s="33">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="33">
+        <v>2</v>
+      </c>
+      <c r="G16" s="33">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="25">
+        <v>90</v>
+      </c>
+      <c r="M16" s="25">
+        <v>95</v>
+      </c>
+      <c r="P16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>45</v>
+      </c>
+      <c r="R16" s="25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" s="33">
+        <v>3</v>
+      </c>
+      <c r="D17" s="33">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="33">
+        <v>1</v>
+      </c>
+      <c r="G17" s="33">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="25">
+        <v>95</v>
+      </c>
+      <c r="M17" s="25">
+        <v>100</v>
+      </c>
+      <c r="P17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>70</v>
+      </c>
+      <c r="R17" s="25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18" s="33">
+        <v>2</v>
+      </c>
+      <c r="D18" s="33">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="33">
+        <v>2</v>
+      </c>
+      <c r="G18" s="33">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="25">
+        <v>75</v>
+      </c>
+      <c r="R18" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19" s="33">
+        <v>5</v>
+      </c>
+      <c r="D19" s="33">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="33">
+        <v>2</v>
+      </c>
+      <c r="G19" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20" s="33">
+        <v>7</v>
+      </c>
+      <c r="D20" s="33">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="33">
+        <v>2</v>
+      </c>
+      <c r="G20" s="33">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>0</v>
+      </c>
+      <c r="R20" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21" s="33">
+        <v>9</v>
+      </c>
+      <c r="D21" s="33">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="33">
+        <v>2</v>
+      </c>
+      <c r="G21" s="33">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="25">
+        <v>5</v>
+      </c>
+      <c r="R21" s="25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22" s="33">
+        <v>5</v>
+      </c>
+      <c r="D22" s="33">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="33">
+        <v>2</v>
+      </c>
+      <c r="G22" s="33">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>23</v>
+      </c>
+      <c r="R22" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23" s="33">
+        <v>6</v>
+      </c>
+      <c r="D23" s="33">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="33">
+        <v>2</v>
+      </c>
+      <c r="G23" s="33">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="25">
+        <v>50</v>
+      </c>
+      <c r="R23" s="25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>19</v>
+      </c>
+      <c r="C24" s="33">
+        <v>7</v>
+      </c>
+      <c r="D24" s="33">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="33">
+        <v>1</v>
+      </c>
+      <c r="G24" s="33">
+        <v>2</v>
+      </c>
+      <c r="P24" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="25">
+        <v>53</v>
+      </c>
+      <c r="R24" s="25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25" s="33">
+        <v>9</v>
+      </c>
+      <c r="D25" s="33">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="33">
+        <v>2</v>
+      </c>
+      <c r="G25" s="33">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="25">
+        <v>80</v>
+      </c>
+      <c r="R25" s="25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>21</v>
+      </c>
+      <c r="C26" s="33">
+        <v>11</v>
+      </c>
+      <c r="D26" s="33">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="33">
+        <v>1</v>
+      </c>
+      <c r="G26" s="33">
+        <v>2</v>
+      </c>
+      <c r="P26" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q26" s="25">
+        <v>83</v>
+      </c>
+      <c r="R26" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>22</v>
+      </c>
+      <c r="C27" s="33">
+        <v>11</v>
+      </c>
+      <c r="D27" s="33">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="33">
+        <v>1</v>
+      </c>
+      <c r="G27" s="33">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>23</v>
+      </c>
+      <c r="C28" s="33">
+        <v>13</v>
+      </c>
+      <c r="D28" s="33">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="33">
+        <v>1</v>
+      </c>
+      <c r="G28" s="33">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>25</v>
+      </c>
+      <c r="P28" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q28" s="25">
+        <v>0</v>
+      </c>
+      <c r="R28" s="25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>24</v>
+      </c>
+      <c r="C29" s="33">
+        <v>14</v>
+      </c>
+      <c r="D29" s="33">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="33">
+        <v>2</v>
+      </c>
+      <c r="G29" s="33">
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q29" s="25">
+        <v>7</v>
+      </c>
+      <c r="R29" s="25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>25</v>
+      </c>
+      <c r="C30" s="33">
+        <v>14</v>
+      </c>
+      <c r="D30" s="33">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="33">
+        <v>2</v>
+      </c>
+      <c r="G30" s="33">
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q30" s="25">
+        <v>35</v>
+      </c>
+      <c r="R30" s="25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>26</v>
+      </c>
+      <c r="C31" s="33">
+        <v>13</v>
+      </c>
+      <c r="D31" s="33">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="33">
+        <v>1</v>
+      </c>
+      <c r="G31" s="33">
+        <v>2</v>
+      </c>
+      <c r="P31" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q31" s="25">
+        <v>37</v>
+      </c>
+      <c r="R31" s="25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>27</v>
+      </c>
+      <c r="C32" s="33">
+        <v>3</v>
+      </c>
+      <c r="D32" s="33">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="33">
+        <v>2</v>
+      </c>
+      <c r="G32" s="33">
+        <v>3</v>
+      </c>
+      <c r="P32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="25">
+        <v>65</v>
+      </c>
+      <c r="R32" s="25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>28</v>
+      </c>
+      <c r="C33" s="33">
+        <v>4</v>
+      </c>
+      <c r="D33" s="33">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="33">
+        <v>2</v>
+      </c>
+      <c r="G33" s="33">
+        <v>3</v>
+      </c>
+      <c r="P33" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q33" s="25">
+        <v>67</v>
+      </c>
+      <c r="R33" s="25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>29</v>
+      </c>
+      <c r="C34" s="33">
+        <v>7</v>
+      </c>
+      <c r="D34" s="33">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="33">
+        <v>2</v>
+      </c>
+      <c r="G34" s="33">
+        <v>3</v>
+      </c>
+      <c r="P34" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q34" s="25">
+        <v>95</v>
+      </c>
+      <c r="R34" s="25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>30</v>
+      </c>
+      <c r="C35" s="33">
+        <v>11</v>
+      </c>
+      <c r="D35" s="33">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="33">
+        <v>3</v>
+      </c>
+      <c r="G35" s="33">
+        <v>3</v>
+      </c>
+      <c r="P35" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q35" s="25">
+        <v>97</v>
+      </c>
+      <c r="R35" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>31</v>
+      </c>
+      <c r="C36" s="33">
+        <v>11</v>
+      </c>
+      <c r="D36" s="33">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="33">
+        <v>3</v>
+      </c>
+      <c r="G36" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>32</v>
+      </c>
+      <c r="C37" s="33">
+        <v>16</v>
+      </c>
+      <c r="D37" s="33">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="33">
+        <v>2</v>
+      </c>
+      <c r="G37" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>33</v>
+      </c>
+      <c r="C38" s="33">
+        <v>16</v>
+      </c>
+      <c r="D38" s="33">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="33">
+        <v>2</v>
+      </c>
+      <c r="G38" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>34</v>
+      </c>
+      <c r="C39" s="33">
+        <v>11</v>
+      </c>
+      <c r="D39" s="33">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="33">
+        <v>4</v>
+      </c>
+      <c r="G39" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" s="33">
+        <v>0</v>
+      </c>
+      <c r="C43" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" s="33">
+        <v>7</v>
+      </c>
+      <c r="C44" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" s="33">
+        <v>1</v>
+      </c>
+      <c r="C45" s="33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" s="33">
+        <v>2</v>
+      </c>
+      <c r="C46" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" s="33">
+        <v>3</v>
+      </c>
+      <c r="C47" s="33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" s="33">
+        <v>11</v>
+      </c>
+      <c r="C48" s="33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" s="33">
+        <v>4</v>
+      </c>
+      <c r="C49" s="33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" s="33">
+        <v>8</v>
+      </c>
+      <c r="C50" s="33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" s="33">
+        <v>9</v>
+      </c>
+      <c r="C51" s="33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" s="33">
+        <v>10</v>
+      </c>
+      <c r="C52" s="33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" s="33">
+        <v>12</v>
+      </c>
+      <c r="C53" s="33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" s="33">
+        <v>13</v>
+      </c>
+      <c r="C54" s="33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" s="33">
+        <v>27</v>
+      </c>
+      <c r="C55" s="33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" s="33">
+        <v>14</v>
+      </c>
+      <c r="C56" s="33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" s="33">
+        <v>15</v>
+      </c>
+      <c r="C57" s="33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" s="33">
+        <v>27</v>
+      </c>
+      <c r="C58" s="33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" s="33">
+        <v>28</v>
+      </c>
+      <c r="C59" s="33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" s="33">
+        <v>18</v>
+      </c>
+      <c r="C60" s="33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" s="33">
+        <v>17</v>
+      </c>
+      <c r="C61" s="33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62" s="33">
+        <v>19</v>
+      </c>
+      <c r="C62" s="33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63" s="33">
+        <v>29</v>
+      </c>
+      <c r="C63" s="33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64" s="33">
+        <v>16</v>
+      </c>
+      <c r="C64" s="33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65" s="33">
+        <v>20</v>
+      </c>
+      <c r="C65" s="33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66" s="33">
+        <v>5</v>
+      </c>
+      <c r="C66" s="33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67" s="33">
+        <v>22</v>
+      </c>
+      <c r="C67" s="33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68" s="33">
+        <v>31</v>
+      </c>
+      <c r="C68" s="33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69" s="33">
+        <v>21</v>
+      </c>
+      <c r="C69" s="33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70" s="33">
+        <v>6</v>
+      </c>
+      <c r="C70" s="33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71" s="33">
+        <v>23</v>
+      </c>
+      <c r="C71" s="33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72" s="33">
+        <v>30</v>
+      </c>
+      <c r="C72" s="33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73" s="33">
+        <v>30</v>
+      </c>
+      <c r="C73" s="33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74" s="33">
+        <v>30</v>
+      </c>
+      <c r="C74" s="33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75" s="33">
+        <v>24</v>
+      </c>
+      <c r="C75" s="33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76" s="33">
+        <v>25</v>
+      </c>
+      <c r="C76" s="33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77" s="33">
+        <v>26</v>
+      </c>
+      <c r="C77" s="33">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6811,7 +8643,7 @@
   <dimension ref="B6:T28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="B6" sqref="B6:T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7263,13 +9095,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="N15:P16"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G15:H17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="S9:T10"/>
     <mergeCell ref="S12:T13"/>
     <mergeCell ref="N13:N14"/>
@@ -7283,12 +9114,13 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="G15:H17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="N15:P16"/>
+    <mergeCell ref="I17:J17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7299,8 +9131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81FE662-32BE-4AE8-9397-69A87FB5C992}">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection sqref="A1:S76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -9050,4 +10882,499 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DA20FC-3DCA-42D6-BCB6-47AA82254B4E}">
+  <dimension ref="B6:T28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="C6" s="22">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1</v>
+      </c>
+      <c r="E6" s="22">
+        <v>2</v>
+      </c>
+      <c r="F6" s="22">
+        <v>3</v>
+      </c>
+      <c r="G6" s="22">
+        <v>4</v>
+      </c>
+      <c r="H6" s="22">
+        <v>5</v>
+      </c>
+      <c r="I6" s="22">
+        <v>6</v>
+      </c>
+      <c r="J6" s="22">
+        <v>7</v>
+      </c>
+      <c r="K6" s="22">
+        <v>8</v>
+      </c>
+      <c r="L6" s="22">
+        <v>9</v>
+      </c>
+      <c r="M6" s="22">
+        <v>10</v>
+      </c>
+      <c r="N6" s="22">
+        <v>11</v>
+      </c>
+      <c r="O6" s="22">
+        <v>12</v>
+      </c>
+      <c r="P6" s="22">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>14</v>
+      </c>
+      <c r="R6" s="22">
+        <v>15</v>
+      </c>
+      <c r="S6" s="22">
+        <v>16</v>
+      </c>
+      <c r="T6" s="22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="39">
+        <v>34</v>
+      </c>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0</v>
+      </c>
+      <c r="D8" s="38">
+        <v>7</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38">
+        <v>8</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="38">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="39">
+        <v>32</v>
+      </c>
+      <c r="T9" s="39"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="24">
+        <v>1</v>
+      </c>
+      <c r="D10" s="38">
+        <v>9</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="41">
+        <v>27</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="38">
+        <v>14</v>
+      </c>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38">
+        <v>15</v>
+      </c>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38">
+        <v>16</v>
+      </c>
+      <c r="M10" s="38"/>
+      <c r="N10" s="41">
+        <v>30</v>
+      </c>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="38">
+        <v>24</v>
+      </c>
+      <c r="R10" s="38"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" s="24">
+        <v>2</v>
+      </c>
+      <c r="D12" s="38">
+        <v>10</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="38">
+        <v>17</v>
+      </c>
+      <c r="I12" s="38"/>
+      <c r="J12" s="41">
+        <v>29</v>
+      </c>
+      <c r="K12" s="41"/>
+      <c r="L12" s="38">
+        <v>20</v>
+      </c>
+      <c r="M12" s="38"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="38">
+        <v>25</v>
+      </c>
+      <c r="R12" s="38"/>
+      <c r="S12" s="39">
+        <v>33</v>
+      </c>
+      <c r="T12" s="39"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="38">
+        <v>12</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="38">
+        <v>21</v>
+      </c>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14" s="24">
+        <v>3</v>
+      </c>
+      <c r="D14" s="38">
+        <v>11</v>
+      </c>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="41">
+        <v>28</v>
+      </c>
+      <c r="H15" s="41"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="38">
+        <v>19</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="41">
+        <v>31</v>
+      </c>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="24">
+        <v>4</v>
+      </c>
+      <c r="E17" s="38">
+        <v>13</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="38">
+        <v>18</v>
+      </c>
+      <c r="J17" s="38"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="38">
+        <v>22</v>
+      </c>
+      <c r="O17" s="21"/>
+      <c r="P17" s="38">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="24">
+        <v>5</v>
+      </c>
+      <c r="O19" s="21"/>
+      <c r="P19" s="24">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="C25" s="9"/>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="C26" s="23"/>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="C27" s="19"/>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="C28" s="20"/>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="G15:H17"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="N15:P16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T13"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G12"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:P12"/>
+    <mergeCell ref="Q10:R10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Naver MYBOX\Cording Study\Kosa\Code\C++\WAiSER Use Project\최종 프로젝트\DT_FINAL_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB7D0A9-3285-43E1-AD30-ABA5ECDA798A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98740C4F-21A8-4274-AE20-B9A116199CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="3" activeTab="9" xr2:uid="{EBD851E0-B472-42A5-A8D1-7DB976409602}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="5" activeTab="11" xr2:uid="{EBD851E0-B472-42A5-A8D1-7DB976409602}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 설계" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="시나리오 3번" sheetId="8" r:id="rId8"/>
     <sheet name="시나리오 4 그림" sheetId="9" r:id="rId9"/>
     <sheet name="시나리오 4번" sheetId="10" r:id="rId10"/>
+    <sheet name="시나리오 5 그림" sheetId="11" r:id="rId11"/>
+    <sheet name="시나리오 5번 " sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="84">
   <si>
     <t>가로</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -363,6 +365,10 @@
   </si>
   <si>
     <t>no.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no.5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1790,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1709FDB1-0C6F-4E55-BAC2-9718CD3942C5}">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1944,7 +1950,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1991,7 +1997,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2038,7 +2044,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -2085,7 +2091,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -2132,7 +2138,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -2179,7 +2185,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -2226,7 +2232,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -2266,7 +2272,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -2316,7 +2322,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -2363,7 +2369,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -2410,7 +2416,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -2457,7 +2463,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>11</v>
@@ -2504,7 +2510,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -2551,7 +2557,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>13</v>
@@ -2583,7 +2589,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>14</v>
@@ -2608,7 +2614,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>15</v>
@@ -2643,7 +2649,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21">
         <v>16</v>
@@ -2675,7 +2681,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>17</v>
@@ -2707,7 +2713,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <v>18</v>
@@ -2739,7 +2745,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <v>19</v>
@@ -2771,7 +2777,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -2803,7 +2809,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26">
         <v>21</v>
@@ -2835,7 +2841,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27">
         <v>22</v>
@@ -2860,7 +2866,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28">
         <v>23</v>
@@ -2895,7 +2901,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29">
         <v>24</v>
@@ -2927,7 +2933,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30">
         <v>25</v>
@@ -2959,7 +2965,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31">
         <v>26</v>
@@ -2991,7 +2997,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>27</v>
@@ -3023,7 +3029,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33">
         <v>28</v>
@@ -3055,7 +3061,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B34">
         <v>29</v>
@@ -3087,7 +3093,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35">
         <v>30</v>
@@ -3119,7 +3125,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B36">
         <v>31</v>
@@ -3142,7 +3148,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37">
         <v>32</v>
@@ -3165,7 +3171,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B38">
         <v>33</v>
@@ -3188,7 +3194,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39">
         <v>34</v>
@@ -3222,7 +3228,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B43" s="33">
         <v>0</v>
@@ -3233,7 +3239,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B44" s="33">
         <v>7</v>
@@ -3244,7 +3250,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B45" s="33">
         <v>1</v>
@@ -3255,7 +3261,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B46" s="33">
         <v>2</v>
@@ -3266,7 +3272,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B47" s="33">
         <v>3</v>
@@ -3277,7 +3283,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B48" s="33">
         <v>11</v>
@@ -3288,7 +3294,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49" s="33">
         <v>4</v>
@@ -3299,7 +3305,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B50" s="33">
         <v>8</v>
@@ -3310,7 +3316,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B51" s="33">
         <v>9</v>
@@ -3321,7 +3327,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52" s="33">
         <v>10</v>
@@ -3332,7 +3338,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53" s="33">
         <v>12</v>
@@ -3343,7 +3349,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B54" s="33">
         <v>13</v>
@@ -3354,7 +3360,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B55" s="33">
         <v>27</v>
@@ -3365,7 +3371,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56" s="33">
         <v>14</v>
@@ -3376,7 +3382,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B57" s="33">
         <v>15</v>
@@ -3387,7 +3393,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B58" s="33">
         <v>27</v>
@@ -3398,7 +3404,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B59" s="33">
         <v>28</v>
@@ -3409,7 +3415,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B60" s="33">
         <v>18</v>
@@ -3420,7 +3426,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B61" s="33">
         <v>17</v>
@@ -3431,7 +3437,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B62" s="33">
         <v>19</v>
@@ -3442,7 +3448,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B63" s="33">
         <v>29</v>
@@ -3453,7 +3459,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B64" s="33">
         <v>16</v>
@@ -3464,7 +3470,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B65" s="33">
         <v>20</v>
@@ -3475,7 +3481,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B66" s="33">
         <v>5</v>
@@ -3486,7 +3492,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B67" s="33">
         <v>22</v>
@@ -3497,7 +3503,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B68" s="33">
         <v>31</v>
@@ -3508,7 +3514,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B69" s="33">
         <v>21</v>
@@ -3519,7 +3525,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B70" s="33">
         <v>6</v>
@@ -3530,7 +3536,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B71" s="33">
         <v>23</v>
@@ -3541,7 +3547,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B72" s="33">
         <v>30</v>
@@ -3552,7 +3558,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B73" s="33">
         <v>30</v>
@@ -3563,7 +3569,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B74" s="33">
         <v>30</v>
@@ -3574,7 +3580,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B75" s="33">
         <v>24</v>
@@ -3585,7 +3591,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B76" s="33">
         <v>25</v>
@@ -3596,7 +3602,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B77" s="33">
         <v>26</v>
@@ -3609,6 +3615,1083 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBC2168-105E-4E85-90C4-AEC09BCEBC67}">
+  <dimension ref="B6:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="C6" s="22">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1</v>
+      </c>
+      <c r="E6" s="22">
+        <v>2</v>
+      </c>
+      <c r="F6" s="22">
+        <v>3</v>
+      </c>
+      <c r="G6" s="22">
+        <v>4</v>
+      </c>
+      <c r="H6" s="22">
+        <v>5</v>
+      </c>
+      <c r="I6" s="22">
+        <v>6</v>
+      </c>
+      <c r="J6" s="22">
+        <v>7</v>
+      </c>
+      <c r="K6" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="40">
+        <v>4</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="38">
+        <v>2</v>
+      </c>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39">
+        <v>5</v>
+      </c>
+      <c r="K8" s="39"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0</v>
+      </c>
+      <c r="D9" s="38">
+        <v>1</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="38">
+        <v>3</v>
+      </c>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39">
+        <v>6</v>
+      </c>
+      <c r="K9" s="39"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="C12" s="9"/>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="C13" s="23"/>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="C14" s="19"/>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="C15" s="20"/>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA68B5-054F-4568-9318-53E72FBC4880}">
+  <dimension ref="A1:S37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4">
+        <v>30</v>
+      </c>
+      <c r="M4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <v>35</v>
+      </c>
+      <c r="M5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6">
+        <v>60</v>
+      </c>
+      <c r="M6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7">
+        <v>65</v>
+      </c>
+      <c r="M7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8">
+        <v>90</v>
+      </c>
+      <c r="M8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9">
+        <v>95</v>
+      </c>
+      <c r="M9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12">
+        <v>35</v>
+      </c>
+      <c r="M12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13">
+        <v>37</v>
+      </c>
+      <c r="M13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14">
+        <v>65</v>
+      </c>
+      <c r="M14">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15">
+        <v>67</v>
+      </c>
+      <c r="M15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16">
+        <v>95</v>
+      </c>
+      <c r="M16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17">
+        <v>97</v>
+      </c>
+      <c r="M17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20">
+        <v>15</v>
+      </c>
+      <c r="M20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21">
+        <v>40</v>
+      </c>
+      <c r="M21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22">
+        <v>45</v>
+      </c>
+      <c r="M22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23">
+        <v>70</v>
+      </c>
+      <c r="M23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24">
+        <v>75</v>
+      </c>
+      <c r="M24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26">
+        <v>20</v>
+      </c>
+      <c r="M26">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27">
+        <v>48</v>
+      </c>
+      <c r="M27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
+      <c r="M28">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29">
+        <v>78</v>
+      </c>
+      <c r="M29">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30">
+        <v>80</v>
+      </c>
+      <c r="M30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="M32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="9:13" x14ac:dyDescent="0.45">
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33">
+        <v>23</v>
+      </c>
+      <c r="M33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="9:13" x14ac:dyDescent="0.45">
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34">
+        <v>50</v>
+      </c>
+      <c r="M34">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="9:13" x14ac:dyDescent="0.45">
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35">
+        <v>53</v>
+      </c>
+      <c r="M35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="9:13" x14ac:dyDescent="0.45">
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36">
+        <v>80</v>
+      </c>
+      <c r="M36">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="9:13" x14ac:dyDescent="0.45">
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37">
+        <v>83</v>
+      </c>
+      <c r="M37">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9095,12 +10178,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G15:H17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="N15:P16"/>
+    <mergeCell ref="I17:J17"/>
     <mergeCell ref="S9:T10"/>
     <mergeCell ref="S12:T13"/>
     <mergeCell ref="N13:N14"/>
@@ -9114,13 +10198,12 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="N15:P16"/>
-    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G15:H17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11345,20 +12428,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="G15:H17"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="N15:P16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="Q12:R12"/>
     <mergeCell ref="S12:T13"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="N13:N14"/>
@@ -11373,6 +12442,20 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:P12"/>
     <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="G15:H17"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="N15:P16"/>
+    <mergeCell ref="Q12:R12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
